--- a/LearningSelenium/Data/EmployeeDetails.xlsx
+++ b/LearningSelenium/Data/EmployeeDetails.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaheer\Desktop\"/>
     </mc:Choice>
@@ -16,7 +16,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Emp Name</t>
   </si>
@@ -90,12 +90,16 @@
   </si>
   <si>
     <t>Conduct the meeting</t>
+  </si>
+  <si>
+    <t>jaheer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -407,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
@@ -415,107 +419,112 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.88671875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.21875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="25.5546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="0">
         <v>101</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="0">
         <v>102</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="0">
         <v>103</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="0">
         <v>104</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="0">
         <v>105</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="0">
         <v>106</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>21</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
